--- a/biology/Botanique/Embelia/Embelia.xlsx
+++ b/biology/Botanique/Embelia/Embelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Embelia est un genre de plantes à fleurs de la famille des Primulaceae en classification phylogénétique APG III (2009)[2] et en classification phylogénétique APG IV (2016)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Embelia est un genre de plantes à fleurs de la famille des Primulaceae en classification phylogénétique APG III (2009) et en classification phylogénétique APG IV (2016).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (3 octobre 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (3 octobre 2017) :
 Embelia adnata Bedd. ex C. B. Cl.
 Embelia angulosa King &amp; Gamble
 Embelia angustifolia (A. DC.) A. DC.
@@ -632,16 +646,16 @@
 Embelia welwitschii (Hiern) K. Schum.
 Embelia whitfordii Merr.
 Embelia xylocarpa P. Halliday
-Selon GRIN            (3 octobre 2017)[5] :
+Selon GRIN            (3 octobre 2017) :
 Embelia basaal (Roem. &amp; Schult.) A. DC.
 Embelia floribunda Wall.
 Embelia laeta (L.) Mez
 Embelia ribes Burm. f.
 Embelia schimperi Vatke
 Embelia tsjeriam-cottam (Roem. &amp; Schult.) A. DC.
-Selon ITIS      (3 octobre 2017)[6] :
+Selon ITIS      (3 octobre 2017) :
 Embelia pacifica Hillebr.
-Selon NCBI  (3 octobre 2017)[7] :
+Selon NCBI  (3 octobre 2017) :
 Embelia aurantiaca
 Embelia australiana
 Embelia cotinoides
@@ -656,7 +670,7 @@
 Embelia undulata
 Embelia vestita
 Embelia xylocarpa
-Selon The Plant List            (3 octobre 2017)[8] :
+Selon The Plant List            (3 octobre 2017) :
 Embelia aberrans E.H.Walker
 Embelia adnata Bedd. ex C.B.Clarke
 Embelia angulosa King &amp; Gamble
@@ -791,7 +805,7 @@
 Embelia whitfordii Merr.
 Embelia xylocarpa P.Halliday
 Embelia zollingeri Mez
-Selon Tropicos                                           (3 octobre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (3 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Embelia aberrans E. Walker
 Embelia abyssinica Baker
 Embelia acuminata Merr.
